--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.99315966666667</v>
+        <v>1.918831666666666</v>
       </c>
       <c r="N2">
-        <v>32.979479</v>
+        <v>5.756494999999999</v>
       </c>
       <c r="O2">
-        <v>0.5822520966482423</v>
+        <v>0.2136389939136679</v>
       </c>
       <c r="P2">
-        <v>0.5822520966482423</v>
+        <v>0.2136389939136679</v>
       </c>
       <c r="Q2">
-        <v>448.0085378854828</v>
+        <v>68.57683966869222</v>
       </c>
       <c r="R2">
-        <v>4032.076840969346</v>
+        <v>617.1915570182299</v>
       </c>
       <c r="S2">
-        <v>0.01238180412107837</v>
+        <v>0.004165382293258938</v>
       </c>
       <c r="T2">
-        <v>0.01238180412107837</v>
+        <v>0.004165382293258936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.694898999999999</v>
       </c>
       <c r="O3">
-        <v>0.1711632639661454</v>
+        <v>0.3598037466296114</v>
       </c>
       <c r="P3">
-        <v>0.1711632639661454</v>
+        <v>0.3598037466296114</v>
       </c>
       <c r="Q3">
-        <v>131.700004294714</v>
+        <v>115.494851350894</v>
       </c>
       <c r="R3">
-        <v>1185.300038652426</v>
+        <v>1039.453662158046</v>
       </c>
       <c r="S3">
-        <v>0.003639849507375134</v>
+        <v>0.007015199462439172</v>
       </c>
       <c r="T3">
-        <v>0.003639849507375134</v>
+        <v>0.00701519946243917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.697989</v>
+        <v>3.26469</v>
       </c>
       <c r="N4">
-        <v>11.093967</v>
+        <v>9.794070000000001</v>
       </c>
       <c r="O4">
-        <v>0.1958637838365006</v>
+        <v>0.3634842488562984</v>
       </c>
       <c r="P4">
-        <v>0.1958637838365006</v>
+        <v>0.3634842488562984</v>
       </c>
       <c r="Q4">
-        <v>150.705592863362</v>
+        <v>116.67627055942</v>
       </c>
       <c r="R4">
-        <v>1356.350335770258</v>
+        <v>1050.08643503478</v>
       </c>
       <c r="S4">
-        <v>0.004165115110511827</v>
+        <v>0.007086959296748902</v>
       </c>
       <c r="T4">
-        <v>0.004165115110511827</v>
+        <v>0.007086959296748901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9576306666666667</v>
+        <v>0.5665</v>
       </c>
       <c r="N5">
-        <v>2.872892</v>
+        <v>1.6995</v>
       </c>
       <c r="O5">
-        <v>0.05072085554911169</v>
+        <v>0.06307301060042241</v>
       </c>
       <c r="P5">
-        <v>0.05072085554911169</v>
+        <v>0.06307301060042241</v>
       </c>
       <c r="Q5">
-        <v>39.02669731146756</v>
+        <v>20.24605928033333</v>
       </c>
       <c r="R5">
-        <v>351.240275803208</v>
+        <v>182.214533523</v>
       </c>
       <c r="S5">
-        <v>0.001078597572903231</v>
+        <v>0.001229753036768652</v>
       </c>
       <c r="T5">
-        <v>0.001078597572903231</v>
+        <v>0.001229753036768652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.99315966666667</v>
+        <v>1.918831666666666</v>
       </c>
       <c r="N6">
-        <v>32.979479</v>
+        <v>5.756494999999999</v>
       </c>
       <c r="O6">
-        <v>0.5822520966482423</v>
+        <v>0.2136389939136679</v>
       </c>
       <c r="P6">
-        <v>0.5822520966482423</v>
+        <v>0.2136389939136679</v>
       </c>
       <c r="Q6">
-        <v>18570.6270713793</v>
+        <v>3241.461815793377</v>
       </c>
       <c r="R6">
-        <v>167135.6436424137</v>
+        <v>29173.1563421404</v>
       </c>
       <c r="S6">
-        <v>0.5132443856732682</v>
+        <v>0.1968875748286314</v>
       </c>
       <c r="T6">
-        <v>0.5132443856732681</v>
+        <v>0.1968875748286314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>9.694898999999999</v>
       </c>
       <c r="O7">
-        <v>0.1711632639661454</v>
+        <v>0.3598037466296114</v>
       </c>
       <c r="P7">
-        <v>0.1711632639661454</v>
+        <v>0.3598037466296114</v>
       </c>
       <c r="Q7">
         <v>5459.16306997112</v>
       </c>
       <c r="R7">
-        <v>49132.46762974008</v>
+        <v>49132.46762974007</v>
       </c>
       <c r="S7">
-        <v>0.1508772313055456</v>
+        <v>0.3315915591550976</v>
       </c>
       <c r="T7">
-        <v>0.1508772313055456</v>
+        <v>0.3315915591550976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.697989</v>
+        <v>3.26469</v>
       </c>
       <c r="N8">
-        <v>11.093967</v>
+        <v>9.794070000000001</v>
       </c>
       <c r="O8">
-        <v>0.1958637838365006</v>
+        <v>0.3634842488562984</v>
       </c>
       <c r="P8">
-        <v>0.1958637838365006</v>
+        <v>0.3634842488562984</v>
       </c>
       <c r="Q8">
-        <v>6246.97327387096</v>
+        <v>5515.0059065816</v>
       </c>
       <c r="R8">
-        <v>56222.75946483864</v>
+        <v>49635.05315923441</v>
       </c>
       <c r="S8">
-        <v>0.1726502798177773</v>
+        <v>0.3349834734507464</v>
       </c>
       <c r="T8">
-        <v>0.1726502798177773</v>
+        <v>0.3349834734507464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9576306666666667</v>
+        <v>0.5665</v>
       </c>
       <c r="N9">
-        <v>2.872892</v>
+        <v>1.6995</v>
       </c>
       <c r="O9">
-        <v>0.05072085554911169</v>
+        <v>0.06307301060042241</v>
       </c>
       <c r="P9">
-        <v>0.05072085554911169</v>
+        <v>0.06307301060042241</v>
       </c>
       <c r="Q9">
-        <v>1617.715244936071</v>
+        <v>956.9823922266667</v>
       </c>
       <c r="R9">
-        <v>14559.43720442464</v>
+        <v>8612.841530039999</v>
       </c>
       <c r="S9">
-        <v>0.04470949009369272</v>
+        <v>0.05812746009876826</v>
       </c>
       <c r="T9">
-        <v>0.04470949009369272</v>
+        <v>0.05812746009876826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.99315966666667</v>
+        <v>1.918831666666666</v>
       </c>
       <c r="N10">
-        <v>32.979479</v>
+        <v>5.756494999999999</v>
       </c>
       <c r="O10">
-        <v>0.5822520966482423</v>
+        <v>0.2136389939136679</v>
       </c>
       <c r="P10">
-        <v>0.5822520966482423</v>
+        <v>0.2136389939136679</v>
       </c>
       <c r="Q10">
-        <v>938.9559690039908</v>
+        <v>179.682377212245</v>
       </c>
       <c r="R10">
-        <v>8450.603721035917</v>
+        <v>1617.141394910205</v>
       </c>
       <c r="S10">
-        <v>0.02595032885176065</v>
+        <v>0.01091397323158143</v>
       </c>
       <c r="T10">
-        <v>0.02595032885176065</v>
+        <v>0.01091397323158143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.694898999999999</v>
       </c>
       <c r="O11">
-        <v>0.1711632639661454</v>
+        <v>0.3598037466296114</v>
       </c>
       <c r="P11">
-        <v>0.1711632639661454</v>
+        <v>0.3598037466296114</v>
       </c>
       <c r="Q11">
-        <v>276.022652903062</v>
+        <v>302.615132846049</v>
       </c>
       <c r="R11">
-        <v>2484.203876127558</v>
+        <v>2723.536195614441</v>
       </c>
       <c r="S11">
-        <v>0.007628556449742748</v>
+        <v>0.0183809537173029</v>
       </c>
       <c r="T11">
-        <v>0.007628556449742746</v>
+        <v>0.0183809537173029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.697989</v>
+        <v>3.26469</v>
       </c>
       <c r="N12">
-        <v>11.093967</v>
+        <v>9.794070000000001</v>
       </c>
       <c r="O12">
-        <v>0.1958637838365006</v>
+        <v>0.3634842488562984</v>
       </c>
       <c r="P12">
-        <v>0.1958637838365006</v>
+        <v>0.3634842488562984</v>
       </c>
       <c r="Q12">
-        <v>315.855400098446</v>
+        <v>305.71064166357</v>
       </c>
       <c r="R12">
-        <v>2842.698600886014</v>
+        <v>2751.395774972131</v>
       </c>
       <c r="S12">
-        <v>0.008729431169018182</v>
+        <v>0.01856897605369843</v>
       </c>
       <c r="T12">
-        <v>0.008729431169018181</v>
+        <v>0.01856897605369843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9576306666666667</v>
+        <v>0.5665</v>
       </c>
       <c r="N13">
-        <v>2.872892</v>
+        <v>1.6995</v>
       </c>
       <c r="O13">
-        <v>0.05072085554911169</v>
+        <v>0.06307301060042241</v>
       </c>
       <c r="P13">
-        <v>0.05072085554911169</v>
+        <v>0.06307301060042241</v>
       </c>
       <c r="Q13">
-        <v>81.79386617065157</v>
+        <v>53.0479397745</v>
       </c>
       <c r="R13">
-        <v>736.1447955358641</v>
+        <v>477.4314579705</v>
       </c>
       <c r="S13">
-        <v>0.002260572162331381</v>
+        <v>0.003222151240828428</v>
       </c>
       <c r="T13">
-        <v>0.002260572162331381</v>
+        <v>0.003222151240828428</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.99315966666667</v>
+        <v>1.918831666666666</v>
       </c>
       <c r="N14">
-        <v>32.979479</v>
+        <v>5.756494999999999</v>
       </c>
       <c r="O14">
-        <v>0.5822520966482423</v>
+        <v>0.2136389939136679</v>
       </c>
       <c r="P14">
-        <v>0.5822520966482423</v>
+        <v>0.2136389939136679</v>
       </c>
       <c r="Q14">
-        <v>1109.928788659572</v>
+        <v>27.52804583363278</v>
       </c>
       <c r="R14">
-        <v>9989.359097936151</v>
+        <v>247.752412502695</v>
       </c>
       <c r="S14">
-        <v>0.03067557800213508</v>
+        <v>0.001672063560196155</v>
       </c>
       <c r="T14">
-        <v>0.03067557800213508</v>
+        <v>0.001672063560196155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.694898999999999</v>
       </c>
       <c r="O15">
-        <v>0.1711632639661454</v>
+        <v>0.3598037466296114</v>
       </c>
       <c r="P15">
-        <v>0.1711632639661454</v>
+        <v>0.3598037466296114</v>
       </c>
       <c r="Q15">
-        <v>326.2831260386769</v>
+        <v>46.361826775571</v>
       </c>
       <c r="R15">
-        <v>2936.548134348092</v>
+        <v>417.256440980139</v>
       </c>
       <c r="S15">
-        <v>0.009017626703481925</v>
+        <v>0.002816034294771756</v>
       </c>
       <c r="T15">
-        <v>0.009017626703481925</v>
+        <v>0.002816034294771756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.697989</v>
+        <v>3.26469</v>
       </c>
       <c r="N16">
-        <v>11.093967</v>
+        <v>9.794070000000001</v>
       </c>
       <c r="O16">
-        <v>0.1958637838365006</v>
+        <v>0.3634842488562984</v>
       </c>
       <c r="P16">
-        <v>0.1958637838365006</v>
+        <v>0.3634842488562984</v>
       </c>
       <c r="Q16">
-        <v>373.3689472092409</v>
+        <v>46.83607088303</v>
       </c>
       <c r="R16">
-        <v>3360.320524883168</v>
+        <v>421.5246379472701</v>
       </c>
       <c r="S16">
-        <v>0.01031895773919329</v>
+        <v>0.002844840055104774</v>
       </c>
       <c r="T16">
-        <v>0.01031895773919329</v>
+        <v>0.002844840055104774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9576306666666667</v>
+        <v>0.5665</v>
       </c>
       <c r="N17">
-        <v>2.872892</v>
+        <v>1.6995</v>
       </c>
       <c r="O17">
-        <v>0.05072085554911169</v>
+        <v>0.06307301060042241</v>
       </c>
       <c r="P17">
-        <v>0.05072085554911169</v>
+        <v>0.06307301060042241</v>
       </c>
       <c r="Q17">
-        <v>96.68756554673821</v>
+        <v>8.127152702166667</v>
       </c>
       <c r="R17">
-        <v>870.188089920644</v>
+        <v>73.1443743195</v>
       </c>
       <c r="S17">
-        <v>0.002672195720184356</v>
+        <v>0.0004936462240570634</v>
       </c>
       <c r="T17">
-        <v>0.002672195720184356</v>
+        <v>0.0004936462240570634</v>
       </c>
     </row>
   </sheetData>
